--- a/data/income_statement/2digits/size/05_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/05_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>05-Mining of coal and lignite</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>05-Mining of coal and lignite</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,104 +841,119 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>94266.94073</v>
+        <v>101213.07579</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>97431.69259999999</v>
+        <v>119123.54378</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>158484.57968</v>
+        <v>178554.23754</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>121171.16257</v>
+        <v>131329.58767</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>194177.7969</v>
+        <v>231452.08775</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>125311.49328</v>
+        <v>140586.11136</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>202025.30051</v>
+        <v>238164.41294</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>136309.31122</v>
+        <v>174116.37536</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>148618.15873</v>
+        <v>171145.20818</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>172342.34035</v>
+        <v>206218.3193</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>213677.14371</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>237623.12924</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>307040.09</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>93188.9035</v>
+        <v>99830.00477</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>96232.52919</v>
+        <v>117628.83618</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>153372.0323</v>
+        <v>173002.42719</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>119660.47607</v>
+        <v>129638.01787</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>189877.09609</v>
+        <v>227171.79606</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>123471.96472</v>
+        <v>139015.60796</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>200136.84395</v>
+        <v>234394.33403</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>134145.03857</v>
+        <v>171789.12584</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>145244.51503</v>
+        <v>167230.93231</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>168415.44217</v>
+        <v>202707.76137</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>209027.99008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>232740.49724</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>291644.156</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>35.2396</v>
+        <v>0.0045</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>86.05544</v>
+        <v>80.96014</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>3348.11896</v>
+        <v>3306.33606</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>0.59293</v>
+        <v>5.54669</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>2528.9919</v>
@@ -1049,10 +965,10 @@
         <v>652.53796</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>371.31996</v>
+        <v>93.7525</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>954.38686</v>
+        <v>943.33389</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>150.82875</v>
@@ -1060,170 +976,195 @@
       <c r="M7" s="48" t="n">
         <v>150.95217</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="48" t="n">
+        <v>2812.755</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>1042.79763</v>
+        <v>1383.06652</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1113.10797</v>
+        <v>1413.74746</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>1764.42842</v>
+        <v>2245.47429</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>1510.09357</v>
+        <v>1686.02311</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>1771.70891</v>
+        <v>1751.29979</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>1760.42953</v>
+        <v>1491.40437</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>1235.9186</v>
+        <v>3117.54095</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>1792.95269</v>
+        <v>2233.49702</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>2419.25684</v>
+        <v>2970.94198</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>3776.06943</v>
+        <v>3359.72918</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>4498.20146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>4731.67983</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>12583.179</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>193.67018</v>
+        <v>261.46577</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>115.48329</v>
+        <v>646.29756</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1922.26962</v>
+        <v>2140.68394</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>133.61959</v>
+        <v>239.28369</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1004.73646</v>
+        <v>2321.21939</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>297.57384</v>
+        <v>241.8964</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>269.46757</v>
+        <v>344.23429</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1218.22809</v>
+        <v>1328.10069</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>584.8388200000001</v>
+        <v>722.16885</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>590.85051</v>
+        <v>6425.23116</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>242.26212</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>666.3911899999999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>3030.057</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>191.15581</v>
+        <v>216.27869</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>74.30050999999999</v>
+        <v>303.1841</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1855.58929</v>
+        <v>2059.1534</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>120.61294</v>
+        <v>228.47704</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>613.83948</v>
+        <v>1930.32241</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>196.21843</v>
+        <v>139.1491</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>144.64177</v>
+        <v>195.01251</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1126.85965</v>
+        <v>1213.44265</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>218.23097</v>
+        <v>339.89742</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>512.87315</v>
+        <v>5887.160930000001</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>226.62737</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>484.70564</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>2581.064</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>0</v>
+        <v>44.79435</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>6.105479999999999</v>
+        <v>308.03616</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>38.90945</v>
+        <v>53.75966</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>8.735049999999999</v>
+        <v>6.53505</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>77.25144</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>22.89442</v>
+        <v>24.69106</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>117.06578</v>
+        <v>141.46176</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>12.69954</v>
+        <v>12.83352</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>366.60785</v>
+        <v>382.27143</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>77.97736</v>
+        <v>536.0815799999999</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>7.13941</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>107.81741</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>411.245</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>2.51437</v>
+        <v>0.39273</v>
       </c>
       <c r="D12" s="48" t="n">
         <v>35.0773</v>
@@ -1238,349 +1179,394 @@
         <v>313.64554</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>78.46099000000001</v>
+        <v>78.05624</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>7.760020000000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>78.66889999999999</v>
+        <v>101.82452</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>0</v>
+        <v>1.98865</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>8.495340000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>73.86814</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>37.748</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>94073.27055000002</v>
+        <v>100951.61002</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>97316.20931000001</v>
+        <v>118477.24622</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>156562.31006</v>
+        <v>176413.5536</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>121037.54298</v>
+        <v>131090.30398</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>193173.06044</v>
+        <v>229130.86836</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>125013.91944</v>
+        <v>140344.21496</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>201755.83294</v>
+        <v>237820.17865</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>135091.08313</v>
+        <v>172788.27467</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>148033.31991</v>
+        <v>170423.03933</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>171751.48984</v>
+        <v>199793.08814</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>213434.88159</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>236956.73805</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>304010.033</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>71666.51078</v>
+        <v>76107.28275</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>73709.35114</v>
+        <v>90054.24653</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>132737.85888</v>
+        <v>144477.74033</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>104229.0333</v>
+        <v>114441.5495</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>157584.17829</v>
+        <v>193999.19509</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>104674.25323</v>
+        <v>123473.28145</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>164658.33657</v>
+        <v>189819.49816</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>116218.52329</v>
+        <v>143154.03281</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>128115.2584</v>
+        <v>145332.62488</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>141618.76447</v>
+        <v>182463.72273</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>185869.12737</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>229346.0989</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>278170.448</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>33923.47184</v>
+        <v>39202.20132</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>34512.52068</v>
+        <v>50999.47733</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>82185.16495000001</v>
+        <v>90011.47623999999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>59278.33119999999</v>
+        <v>70080.16465999999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>79081.34461</v>
+        <v>103124.13904</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>55493.40659</v>
+        <v>68399.33082</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>91131.22334</v>
+        <v>104445.92656</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>85010.84079999999</v>
+        <v>98944.36237</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>85526.93806</v>
+        <v>95772.5726</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>85838.41307</v>
+        <v>123890.86945</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>107326.75568</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>150961.84526</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>185695.019</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>25550.46213</v>
+        <v>24263.14909</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>24358.26922</v>
+        <v>24771.90795</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>34136.96204</v>
+        <v>34724.86996</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>22292.03619</v>
+        <v>21102.57595</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>48536.40442</v>
+        <v>53248.39224</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>34863.13476</v>
+        <v>35347.50326</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>53101.91426</v>
+        <v>56714.07487</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>20189.6611</v>
+        <v>28003.91388</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>23105.45977</v>
+        <v>29993.42514</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>38116.70183</v>
+        <v>41929.50156</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>58746.23661</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>59661.64863</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>55653.703</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>11950.72336</v>
+        <v>12641.03997</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>14340.60424</v>
+        <v>14282.86125</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>16266.39154</v>
+        <v>19725.35126</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>22600.66591</v>
+        <v>23200.80889</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>29966.42926</v>
+        <v>37069.97156000001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>13933.04858</v>
+        <v>19614.58296</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>18727.80819</v>
+        <v>27494.07243</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>10421.8835</v>
+        <v>15607.93677</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>18809.79258</v>
+        <v>18364.60379</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>15763.6039</v>
+        <v>15328.34913</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>18798.92482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>18447.43306</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>33340.262</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>241.85345</v>
+        <v>0.89237</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>497.957</v>
+        <v>0</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>149.34035</v>
+        <v>16.04287</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>58</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>0</v>
+        <v>556.6922499999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>384.6633</v>
+        <v>111.86441</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>1697.39078</v>
+        <v>1165.4243</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>596.13789</v>
+        <v>597.81979</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>673.06799</v>
+        <v>1202.02335</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1900.04567</v>
+        <v>1315.00259</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>997.2102600000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>275.17195</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>3481.464</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>22406.75977</v>
+        <v>24844.32727</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>23606.85817</v>
+        <v>28422.99969</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>23824.45118</v>
+        <v>31935.81327</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>16808.50968</v>
+        <v>16648.75448</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>35588.88215</v>
+        <v>35131.67327</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>20339.66621</v>
+        <v>16870.93351</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>37097.49637</v>
+        <v>48000.68048999999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>18872.55984</v>
+        <v>29634.24186</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>19918.06151</v>
+        <v>25090.41445</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>30132.72537</v>
+        <v>17329.36541</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>27565.75422</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7610.63915</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>25839.585</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>24335.31865</v>
+        <v>24399.26908</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>24545.41749</v>
+        <v>26558.19875</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>27241.52593</v>
+        <v>37682.5135</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>20976.82615</v>
+        <v>20731.37189</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>39298.55387</v>
+        <v>39035.38907</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>32366.94795</v>
+        <v>33095.72999</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>47126.23033</v>
+        <v>55792.54762</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>29554.81069</v>
+        <v>34373.4187</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>22494.25957</v>
+        <v>24102.14635</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>31051.68464</v>
+        <v>27991.21107</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>29583.44665</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>27842.96509</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>27156.426</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>85.72592</v>
+        <v>9.0717</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>184.64246</v>
+        <v>3.2694</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>49.00436</v>
+        <v>296.09347</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>0</v>
@@ -1592,10 +1578,10 @@
         <v>190.95911</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1557.86436</v>
+        <v>1568.03636</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>13</v>
+        <v>28.63</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>20.825</v>
@@ -1606,173 +1592,198 @@
       <c r="M21" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>90.116</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>3866.30824</v>
+        <v>4161.18062</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>2795.51904</v>
+        <v>5979.67988</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>4062.89307</v>
+        <v>7236.331450000001</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>4440.762269999999</v>
+        <v>4455.714379999999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>9859.78974</v>
+        <v>10838.11349</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>8734.514880000001</v>
+        <v>8710.55149</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>16576.92611</v>
+        <v>16960.66846</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>8888.830960000001</v>
+        <v>9690.6718</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>7969.785400000001</v>
+        <v>9330.114449999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>8263.83059</v>
+        <v>9943.210720000001</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>6893.67279</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>7131.571110000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>6015.879</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>20383.28449</v>
+        <v>20229.01676</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>21565.25599</v>
+        <v>20575.24947</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>23129.6285</v>
+        <v>30150.08858</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>16536.06388</v>
+        <v>16275.65751</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>29438.76413</v>
+        <v>28197.27558</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>23441.47396</v>
+        <v>24194.21939</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>28991.43986</v>
+        <v>37263.8428</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>20652.97973</v>
+        <v>24654.1169</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>14503.64917</v>
+        <v>14751.2069</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>22787.85405</v>
+        <v>18048.00035</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>22689.77386</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>20711.39398</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>21050.431</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-1928.55888</v>
+        <v>445.05819</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-938.55932</v>
+        <v>1864.80094</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-3417.07475</v>
+        <v>-5746.70023</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-4168.31647</v>
+        <v>-4082.61741</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-3709.67172</v>
+        <v>-3903.7158</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-12027.28174</v>
+        <v>-16224.79648</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-10028.73396</v>
+        <v>-7791.86713</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-10682.25085</v>
+        <v>-4739.17684</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-2576.19806</v>
+        <v>988.2680999999999</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>-918.9592700000001</v>
+        <v>-10661.84566</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-2017.69243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-20232.32594</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-1316.841</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>982.46395</v>
+        <v>736.87636</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2366.51876</v>
+        <v>2290.95694</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1362.08078</v>
+        <v>27787.25438</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>4917.41385</v>
+        <v>2330.99612</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>5004.98182</v>
+        <v>6545.67779</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>5000.66617</v>
+        <v>5221.49405</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>8187.00926</v>
+        <v>14157.36412</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4833.970029999999</v>
+        <v>12310.37928</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>2709.79168</v>
+        <v>25685.0661</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>12171.63073</v>
+        <v>18305.72803</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>5941.84633</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>6883.545109999999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>4167.857</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>90.4087</v>
+        <v>60.27246</v>
       </c>
       <c r="E26" s="48" t="n">
         <v>0</v>
@@ -1784,16 +1795,16 @@
         <v>0</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>61.17699</v>
+        <v>0</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>481.82014</v>
+        <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>18.09064</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>26.93099</v>
+        <v>20525.39738</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>190.24469</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1838,58 +1854,68 @@
         <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>301.80128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>114.16533</v>
+        <v>74.73349</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>72.42043000000001</v>
+        <v>36.77495</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>122.97613</v>
+        <v>461.84247</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>442.38353</v>
+        <v>1401.10661</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>295.17585</v>
+        <v>1900.44641</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>374.12286</v>
+        <v>3298.25388</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>832.72203</v>
+        <v>3473.4474</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>500.97194</v>
+        <v>2944.91956</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>444.29028</v>
+        <v>2937.53594</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>3831.38666</v>
+        <v>4096.16057</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2014.49667</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2283.59678</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2378.81</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>0</v>
+        <v>7.5221</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>0</v>
@@ -1898,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>0</v>
+        <v>0.78015</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>0</v>
@@ -1910,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>0</v>
+        <v>32.3536</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>0</v>
@@ -1918,11 +1944,16 @@
       <c r="M29" s="48" t="n">
         <v>22.19872</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>25.818</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
@@ -1952,43 +1983,48 @@
         <v>0</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>16.50002</v>
+        <v>16.5</v>
       </c>
       <c r="M30" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1.19775</v>
+        <v>7.61638</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>1.59978</v>
+        <v>22090.56778</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>27.79642</v>
+        <v>28.1423</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>15.07909</v>
+        <v>15.01779</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>32.39138</v>
+        <v>5.61756</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>36.53462</v>
+        <v>3.82888</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>47.46392999999999</v>
+        <v>54.32491</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>64.13929</v>
+        <v>18.41713</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>1117.53437</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>30.13287</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>25.964</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>342.61616</v>
+        <v>71.77802</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>130.61596</v>
+        <v>27.39211</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>416.7956</v>
+        <v>4480.65481</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>32.31638</v>
+        <v>65.09998999999999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>3708.53138</v>
+        <v>3456.00204</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>111.60755</v>
+        <v>1286.68035</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>310.11759</v>
+        <v>3968.2612</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>930.4163700000001</v>
+        <v>7249.50877</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1335.37406</v>
+        <v>608.4322199999999</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>4417.85309</v>
+        <v>9608.79048</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>897.63626</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1304.22766</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>540.404</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2093,7 +2144,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>0</v>
@@ -2113,131 +2164,151 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>524.48471</v>
+        <v>582.74847</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>2073.07367</v>
+        <v>2158.99532</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>820.7092700000001</v>
+        <v>754.1893200000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>4414.917520000001</v>
+        <v>836.6472199999999</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>962.5955</v>
+        <v>1151.3314</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>4421.367389999999</v>
+        <v>630.94226</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>6406.254390000001</v>
+        <v>6592.26615</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>3337.02715</v>
+        <v>2043.5354</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>839.05706</v>
+        <v>1562.92983</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>2598.1119</v>
+        <v>3276.49792</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2665.58053</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>3233.38908</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>1196.861</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>818.58399</v>
+        <v>1575.81615</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2026.84279</v>
+        <v>2758.7991</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1029.88255</v>
+        <v>2411.67133</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>2775.55735</v>
+        <v>1206.44722</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>5247.294720000001</v>
+        <v>3585.11975</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>2993.65211</v>
+        <v>1769.32997</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>2269.80855</v>
+        <v>2329.40241</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>4846.709930000001</v>
+        <v>13519.10774</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>2594.37884</v>
+        <v>5896.39363</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>2950.78281</v>
+        <v>23941.26976</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>12395.77422</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>10274.38843</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>11580.968</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>0.26945</v>
+        <v>0</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>0.6801799999999999</v>
+        <v>0.52967</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>2.64663</v>
+        <v>2.27663</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>15.80321</v>
+        <v>14.80945</v>
       </c>
       <c r="H37" s="48" t="n">
         <v>7.65917</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>2.01239</v>
+        <v>1.76484</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>5.58501</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>11.06106</v>
+        <v>4.21201</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>3.44841</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>6.69334</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>8.61749</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>9.297000000000001</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>8.223459999999999</v>
+        <v>1008.22346</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>0</v>
@@ -2246,22 +2317,22 @@
         <v>0</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>0</v>
+        <v>173.15237</v>
       </c>
       <c r="G38" s="48" t="n">
         <v>0</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>1378.50886</v>
+        <v>844.20248</v>
       </c>
       <c r="I38" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>934.40622</v>
+        <v>470.27064</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>0</v>
+        <v>1900</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>200</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>214</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>564.5</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2303,55 +2379,65 @@
         <v>0</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>1090</v>
+        <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>7.7925</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>714.9177599999999</v>
+        <v>97.47165000000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>147.23128</v>
+        <v>275.0895</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>732.94577</v>
+        <v>1361.82503</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>43.92864</v>
+        <v>725.4890799999999</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>4808.523200000001</v>
+        <v>3202.5973</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>132.2612</v>
+        <v>456.7376</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>311.18802</v>
+        <v>371.98564</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1272.89649</v>
+        <v>12603.64093</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>543.2031699999999</v>
+        <v>274.25454</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>1444.78478</v>
+        <v>23635.274</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>460.4584399999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>9123.232390000001</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>446.724</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,17 +2472,22 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D42" s="48" t="n">
-        <v>0</v>
+        <v>142.60024</v>
       </c>
       <c r="E42" s="48" t="n">
         <v>0</v>
@@ -2411,7 +2502,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>158.48064</v>
+        <v>0</v>
       </c>
       <c r="J42" s="48" t="n">
         <v>0</v>
@@ -2425,155 +2516,175 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>95.17331999999999</v>
+        <v>470.1210400000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1879.61151</v>
+        <v>2341.10936</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>295.40977</v>
+        <v>1048.4698</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2728.69652</v>
+        <v>305.24358</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>236.3482</v>
+        <v>181.09289</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1475.22288</v>
+        <v>460.73072</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1798.1275</v>
+        <v>1955.65193</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>2633.82221</v>
+        <v>439.61116</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>2040.11461</v>
+        <v>3717.927079999999</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>212.54962</v>
+        <v>102.54735</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>11706.82994</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>920.74605</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>10560.447</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>1787.63705</v>
+        <v>1394.99761</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1404.2015</v>
+        <v>3249.47922</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1421.21055</v>
+        <v>2466.38684</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2190.62838</v>
+        <v>3212.33499</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3144.53647</v>
+        <v>6032.41113</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>2144.67375</v>
+        <v>4864.12562</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3784.96244</v>
+        <v>7769.13429</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>3402.52722</v>
+        <v>26686.52847</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>3818.00034</v>
+        <v>9636.541379999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>4621.234759999999</v>
+        <v>52663.20456000001</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>4885.59693</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>57102.88327000001</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>5910.42</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>1486.38115</v>
+        <v>1305.69124</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1348.51236</v>
+        <v>1526.09061</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1317.80887</v>
+        <v>2186.07418</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2190.62838</v>
+        <v>3092.94517</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3125.11597</v>
+        <v>4527.79927</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>2105.31705</v>
+        <v>4831.1115</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>3773.50802</v>
+        <v>7763.77511</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>3400.85695</v>
+        <v>26684.8582</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>3817.68669</v>
+        <v>4829.18951</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>4541.56244</v>
+        <v>52583.53224</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>4885.59693</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>57102.88327000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>5816.844</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>301.2558999999999</v>
+        <v>89.30637</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>55.68914</v>
+        <v>1723.38861</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>103.40168</v>
+        <v>280.31266</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>0</v>
+        <v>119.38982</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>19.4205</v>
+        <v>1504.61186</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>39.3567</v>
+        <v>33.01412000000001</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>11.45442</v>
+        <v>5.35918</v>
       </c>
       <c r="J46" s="48" t="n">
         <v>1.67027</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>0.31365</v>
+        <v>4807.35187</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>79.67232000000001</v>
@@ -2581,95 +2692,110 @@
       <c r="M46" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>93.57599999999999</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-3552.31597</v>
+        <v>-1788.87921</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-2003.08485</v>
+        <v>-1852.52044</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-4506.08707</v>
+        <v>17162.49598</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-4217.08835</v>
+        <v>-6170.4035</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-7096.52109</v>
+        <v>-6975.56889</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-12164.94143</v>
+        <v>-17636.75802</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-7896.49569</v>
+        <v>-3733.03971</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-14097.51797</v>
+        <v>-32634.43377</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-6278.785559999999</v>
+        <v>11140.39919</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>3680.65389</v>
+        <v>-68960.59195</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-13357.21725</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>-80726.05253</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-14640.372</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>650.02446</v>
+        <v>421.74185</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>846.30186</v>
+        <v>1109.41786</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1917.62156</v>
+        <v>2167.52107</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1941.09628</v>
+        <v>2570.84733</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1285.14181</v>
+        <v>2450.52345</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>4094.074</v>
+        <v>20031.22761</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1980.13396</v>
+        <v>4593.74638</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3363.15881</v>
+        <v>3755.03886</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>1542.2069</v>
+        <v>1477.22916</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>5973.04763</v>
+        <v>1186.6132</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>4760.949189999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>8704.66648</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>5810.837</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>0.32194</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>0</v>
+        <v>452.40655</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>553.5216899999999</v>
@@ -2678,340 +2804,383 @@
         <v>0</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>0</v>
+        <v>60.77552</v>
       </c>
       <c r="H49" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>52.93471</v>
+        <v>0</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>7.985930000000001</v>
+        <v>2.55393</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>7.58234</v>
+        <v>24.04653</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>0.90734</v>
+        <v>0.43504</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>236.766</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>610.038</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>649.70252</v>
+        <v>421.41991</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>846.30186</v>
+        <v>657.0113100000001</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1364.09987</v>
+        <v>1613.99938</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1941.09628</v>
+        <v>2570.84733</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1285.14181</v>
+        <v>2389.74793</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>4094.074</v>
+        <v>20031.22761</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1927.19925</v>
+        <v>4593.74638</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>3355.17288</v>
+        <v>3752.48493</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>1534.62456</v>
+        <v>1453.18263</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>5972.14029</v>
+        <v>1186.17816</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>4524.18319</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>8704.66648</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>5200.799</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>8620.206749999999</v>
+        <v>4785.4514</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1346.30021</v>
+        <v>608.72435</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>4494.84989</v>
+        <v>11597.48835</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>2277.72263</v>
+        <v>1506.78975</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>2596.22975</v>
+        <v>3344.27521</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>3223.14924</v>
+        <v>3467.83854</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>6665.820580000001</v>
+        <v>7487.61221</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>8465.48049</v>
+        <v>21923.19222</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>2301.77653</v>
+        <v>2955.93198</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>26227.77713</v>
+        <v>11739.2464</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>4274.85649</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>7464.4841</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>7188.345</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>528.42626</v>
+        <v>211.30751</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>341.62437</v>
+        <v>24.50562</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>317.11875</v>
+        <v>0</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>871.5485799999999</v>
+        <v>554.4298299999999</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>296.14458</v>
+        <v>45.03568</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>1149.34577</v>
+        <v>403.82258</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>42.11783999999999</v>
+        <v>1742.08571</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1350.06556</v>
+        <v>4196.809139999999</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>270.87529</v>
+        <v>89.08353</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>436.21507</v>
+        <v>422.87688</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>2113.86619</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>3533.82003</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>3759.845</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>91.45092</v>
+        <v>92.40566</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>23.85485</v>
+        <v>44.20218</v>
       </c>
       <c r="E53" s="48" t="n">
         <v>14.15378</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>98.75417</v>
+        <v>98.75353999999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>93.48818</v>
+        <v>23.49406</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>160.63595</v>
+        <v>33.12253</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>4622.51569</v>
+        <v>31.70203</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>64.14121</v>
+        <v>15.26173</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>6.94852</v>
+        <v>95.54310000000001</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>6348.09134</v>
+        <v>164.74492</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>73.65135000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>15.35588</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>21.42</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>8000.32957</v>
+        <v>4481.738230000001</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>980.8209899999999</v>
+        <v>540.0165500000001</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>4163.57736</v>
+        <v>11583.33457</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>1307.41988</v>
+        <v>853.6063800000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>2206.59699</v>
+        <v>3275.74547</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1913.16752</v>
+        <v>3030.89343</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>2001.18705</v>
+        <v>5713.82447</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>7051.27372</v>
+        <v>17711.12135</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>2023.95272</v>
+        <v>2771.30535</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>19443.47072</v>
+        <v>11151.6246</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2087.33895</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>3915.30819</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>3407.08</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-11522.49826</v>
+        <v>-6152.58876</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-2503.0832</v>
+        <v>-1351.82693</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-7083.3154</v>
+        <v>7732.5287</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-4553.7147</v>
+        <v>-5106.34592</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-8407.60903</v>
+        <v>-7869.320650000001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-11294.01667</v>
+        <v>-1073.36895</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-12582.18231</v>
+        <v>-6626.905539999999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-19199.83965</v>
+        <v>-50802.58712999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-7038.355189999999</v>
+        <v>9661.696370000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-16574.07561</v>
+        <v>-79513.22514999998</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-12871.12455</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-79485.87014999999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-16017.88</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>459.30758</v>
+        <v>535.2099400000001</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>634.56342</v>
+        <v>781.23058</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>636.8917200000001</v>
+        <v>2352.4063</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1013.05916</v>
+        <v>1142.64408</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>741.7518100000001</v>
+        <v>1362.60067</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1063.37113</v>
+        <v>2556.04747</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1046.44678</v>
+        <v>1689.69535</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>696.9558400000001</v>
+        <v>1609.86997</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>759.9898900000001</v>
+        <v>1218.5952</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>3708.50102</v>
+        <v>3085.76424</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>1998.80731</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>1760.2194</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>2583.119</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-11981.80584</v>
+        <v>-6687.7987</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-3137.64662</v>
+        <v>-2133.05751</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-7720.20712</v>
+        <v>5380.1224</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-5566.77386</v>
+        <v>-6248.99</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-9149.360839999999</v>
+        <v>-9231.921319999999</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-12357.3878</v>
+        <v>-3629.41642</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-13628.62909</v>
+        <v>-8316.60089</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-19896.79549</v>
+        <v>-52412.4571</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-7798.34508</v>
+        <v>8443.10117</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-20282.57663</v>
+        <v>-82598.98939</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-14869.93186</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-81246.08955</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-18600.999</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>108</v>
+        <v>73</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>46</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>